--- a/mod工具 - Mujica.xlsx
+++ b/mod工具 - Mujica.xlsx
@@ -19046,7 +19046,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="4" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{FEED0388-B7A3-46D4-A2CD-DAAB31577FF9}">
+    <tableStyle name="中色系标题行镶边行表格样式_6e22f3" count="7" xr9:uid="{C736545A-7F32-4B32-B2DA-C1A3DED46E2E}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -19055,7 +19055,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{A9FEAC56-422E-4E31-88F8-E8FB4D13D8E0}">
+    <tableStyle name="双色系标题行首列镶边行表格样式_766e57" count="9" xr9:uid="{B6510CDB-97A7-463A-95E7-BDEA14A854C8}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
       <tableStyleElement type="totalRow" dxfId="13"/>
@@ -19066,7 +19066,7 @@
       <tableStyleElement type="firstHeaderCell" dxfId="8"/>
       <tableStyleElement type="firstTotalCell" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{F4F5C9E0-75D6-4D4E-A1B3-E270F0F6D731}">
+    <tableStyle name="中色系标题行镶边列表格样式_e714ff" count="7" xr9:uid="{2ED3F22D-3FD5-44C0-A0F7-34133DD8B8A2}">
       <tableStyleElement type="wholeTable" dxfId="22"/>
       <tableStyleElement type="headerRow" dxfId="21"/>
       <tableStyleElement type="totalRow" dxfId="20"/>
@@ -19075,7 +19075,7 @@
       <tableStyleElement type="secondRowStripe" dxfId="17"/>
       <tableStyleElement type="firstColumnStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{AB28937E-F83F-4EE2-8459-813CB9C033E4}">
+    <tableStyle name="简约边框浅色系标题行镶边行表格样式_85b9f4" count="10" xr9:uid="{229FBA11-505A-4289-89B7-2C74E7715C46}">
       <tableStyleElement type="wholeTable" dxfId="32"/>
       <tableStyleElement type="headerRow" dxfId="31"/>
       <tableStyleElement type="totalRow" dxfId="30"/>
@@ -19348,8 +19348,8 @@
   <sheetPr/>
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.2727272727273" defaultRowHeight="14"/>
@@ -42083,8 +42083,8 @@
   <sheetPr/>
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
